--- a/data_process/xlsx/jongno_F3.xlsx
+++ b/data_process/xlsx/jongno_F3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>contact</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +501,11 @@
           <t>정보 없음</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/restaurant/1978768836/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143992399</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +538,11 @@
           <t>02-720-6244</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/restaurant/1775512624/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144002625</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +575,11 @@
           <t>정보 없음</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13412896/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144009439</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +612,11 @@
           <t>정보 없음</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1225239887/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144018179</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -611,7 +636,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -622,6 +647,11 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13412895/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144029086</t>
         </is>
       </c>
     </row>
@@ -656,6 +686,11 @@
           <t>02-2200-5531</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1675852307/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144037852</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -675,7 +710,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>511</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,6 +721,11 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>0507-1339-9519</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/restaurant/37769968/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144046713</t>
         </is>
       </c>
     </row>
@@ -707,7 +747,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>511</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -718,13 +758,18 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>02-777-6548</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1176502853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144052285</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>세종문화회관 대극장</t>
+          <t>동덕여자대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -734,29 +779,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>449</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 세종대로 175 세종이야기</t>
+          <t>서울 종로구 동숭길 126 동덕여대 공연예술 연구소</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02-399-1111</t>
+          <t>02-940-4578</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144057526</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>동덕여자대학교 공연예술센터</t>
+          <t>세종문화회관 대극장</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -776,12 +826,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 126 동덕여대 공연예술 연구소</t>
+          <t>서울 종로구 세종대로 175 세종이야기</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02-940-4578</t>
+          <t>02-399-1111</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144064349</t>
         </is>
       </c>
     </row>
@@ -798,7 +853,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -814,18 +869,23 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>02-742-0300</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144069934</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이화여자고등학교100주년기념관</t>
+          <t>더굿씨어터</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>부속건물</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -840,12 +900,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 중구 정동길 26</t>
+          <t>서울 종로구 대학로 144 중원빌딩 지하2층</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02-777-4258</t>
+          <t>02-742-7779</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1958045053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144075125</t>
         </is>
       </c>
     </row>
@@ -867,7 +932,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -878,6 +943,11 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>02-763-8233</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11639698/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144080269</t>
         </is>
       </c>
     </row>
@@ -899,7 +969,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -910,18 +980,23 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>02-798-7242</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/427162972/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144085933</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>리엔터테인먼트</t>
+          <t>이화여자고등학교100주년기념관</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>공연기획사</t>
+          <t>부속건물</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,29 +1006,34 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 종로구 종로17길 50 3층 301호</t>
+          <t>서울 중구 정동길 26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1303-8439</t>
+          <t>02-777-4258</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13283331/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144091069</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>에이비에스갤러리</t>
+          <t>리엔터테인먼트</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>미술,공예품</t>
+          <t>공연기획사</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -963,29 +1043,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 14 3층</t>
+          <t>서울 종로구 종로17길 50 3층 301호</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1314-8933</t>
+          <t>0507-1303-8439</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1887001748/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144099848</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>미마지아트센터 물빛극장</t>
+          <t>에이비에스갤러리</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>미술,공예품</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,24 +1080,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 129 동원빌딩 지하 1층</t>
+          <t>서울 종로구 인사동길 14 3층</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02-6404-5005</t>
+          <t>0507-1314-8933</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1718874403/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144106631</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>더굿씨어터</t>
+          <t>미마지아트센터 물빛극장</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1027,17 +1117,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>692</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 144 중원빌딩 지하2층</t>
+          <t>서울 종로구 대학로8가길 129 동원빌딩 지하 1층</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>010-2831-7871</t>
+          <t>02-6404-5005</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11663674/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144113461</t>
         </is>
       </c>
     </row>
@@ -1072,6 +1167,11 @@
           <t>010-2011-4634</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1652006730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144120218</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1104,6 +1204,11 @@
           <t>02-779-1595</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1462945640/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144129113</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1136,16 +1241,21 @@
           <t>010-2831-7872</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1329893251/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144135884</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>유니시드</t>
+          <t>미송아트홀</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>협회,단체</t>
+          <t>장소대여</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1155,29 +1265,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 254</t>
+          <t>서울 종로구 창경궁로29길 25 명륜빌딩 3층 미송아트홀</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1315-0381</t>
+          <t>0507-1330-5791</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/30949204/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144144726</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>미송아트홀</t>
+          <t>유니시드</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>협회,단체</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,17 +1302,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로29길 25 명륜빌딩3층 바다소리</t>
+          <t>서울 종로구 창경궁로 254</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1330-5791</t>
+          <t>0507-1315-0381</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1270388997/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144151515</t>
         </is>
       </c>
     </row>
@@ -1232,16 +1352,21 @@
           <t>02-2128-2800</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11622959/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144158399</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>일미터클래식</t>
+          <t>펀에이드</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>엔터테인먼트</t>
+          <t>문화,예술단체</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1256,24 +1381,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 중구 동호로 241</t>
+          <t>서울 종로구 자하문로10길 30 이룸빌딩 4층</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>02-2128-2800</t>
+          <t>02-504-7568</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/605736485/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144164217</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>펀에이드</t>
+          <t>일미터클래식</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>문화,예술단체</t>
+          <t>엔터테인먼트</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1283,17 +1413,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 종로구 자하문로10길 30 이룸빌딩 4층</t>
+          <t>서울 종로구 종로1길 50 더케이트윈타워 B동 3층 128</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>02-504-7568</t>
+          <t>02-766-7623</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13280793/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144169868</t>
         </is>
       </c>
     </row>
@@ -1328,6 +1463,11 @@
           <t>0507-1362-3307</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37615785/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144176580</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1360,6 +1500,11 @@
           <t>02-742-4224</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/31676191/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144183457</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1392,6 +1537,11 @@
           <t>070-5101-4073</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37879959/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144190296</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1424,6 +1574,11 @@
           <t>0507-1354-0638</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1006025379/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144197093</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1456,6 +1611,11 @@
           <t>0507-1392-0117</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1487684204/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144205893</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1480,12 +1640,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 종로구 경희궁1길 1 투바앤빌딩 3층 사무실</t>
+          <t>서울 중구 청계천로 334 청평화시장</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0507-1392-0117</t>
+          <t>02-2233-2027</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37608801/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144212157</t>
         </is>
       </c>
     </row>
@@ -1520,6 +1685,11 @@
           <t>02-2268-3395</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/19942730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144217376</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1552,6 +1722,11 @@
           <t>02-2279-6581</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/599104763/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144226108</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1584,6 +1759,11 @@
           <t>02-318-2032</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13021121/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144232256</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1616,6 +1796,11 @@
           <t>0507-1408-7327</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/31818817/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144237492</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1648,6 +1833,11 @@
           <t>0507-1476-0272</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1567408396/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144244261</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1678,6 +1868,11 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>010-3346-5451</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1690067565/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144253049</t>
         </is>
       </c>
     </row>

--- a/data_process/xlsx/jongno_F3.xlsx
+++ b/data_process/xlsx/jongno_F3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,21 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>라이브콘서트7080</t>
+          <t>갤러리콘서트카페 시가연</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>라이브카페</t>
+          <t>갤러리카페</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,34 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로 132-1</t>
+          <t>서울 종로구 인사동길 52 지하1층</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-720-6244</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1978768836/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143992399</t>
+          <t>https://pcmap.place.naver.com/restaurant/1775512624/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9842647&amp;y=37.5746617&amp;timestamp=202309071857</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>갤러리콘서트카페 시가연</t>
+          <t>라이브콘서트7080</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>갤러리카페</t>
+          <t>라이브카페</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,22 +535,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 52 지하1층</t>
+          <t>서울 종로구 수표로 132-1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02-720-6244</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1775512624/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144002625</t>
+          <t>https://pcmap.place.naver.com/restaurant/1978768836/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9885046&amp;y=37.5728607&amp;timestamp=202309071857</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -562,7 +577,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -577,19 +592,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13412896/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144009439</t>
+          <t>https://pcmap.place.naver.com/place/13412896/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.002138199919&amp;y=37.583956700947105&amp;timestamp=202309071857</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>클래식전용콘서트홀</t>
+          <t>교원투어 콘서트홀 교육장</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>교육,학교</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,24 +624,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>서울 종로구 종로5길 68 코리안리재보험</t>
+          <t>서울 종로구 청계천로 51-1 교원투어빌딩</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-397-0275</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1225239887/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144018179</t>
+          <t>https://pcmap.place.naver.com/place/1310596315/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.983539&amp;y=37.5691267&amp;timestamp=202309071857</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>브로드웨이아트홀 1관</t>
+          <t>클래식전용콘서트홀</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,12 +661,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 132 형원빌딩</t>
+          <t>서울 종로구 종로5길 68 코리안리재보험</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,19 +676,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13412895/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144029086</t>
+          <t>https://pcmap.place.naver.com/place/1225239887/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98044619999997&amp;y=37.573435300000014&amp;timestamp=202309071858</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>포엄콘서트</t>
+          <t>브로드웨이아트홀 1관</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,71 +703,81 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 276 B1층 03호</t>
+          <t>서울 종로구 대학로 132 형원빌딩</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02-2200-5531</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1675852307/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144037852</t>
+          <t>https://pcmap.place.naver.com/place/13412895/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00192300043&amp;y=37.58404300091999&amp;timestamp=202309071858</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>카페드콘서트</t>
+          <t>포엄콘서트</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 중구 세종대로 17 와이즈타워 1층</t>
+          <t>서울 중구 을지로 276 B1층 03호</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1339-9519</t>
+          <t>02-2200-5531</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37769968/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144046713</t>
+          <t>https://pcmap.place.naver.com/place/1675852307/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0084388&amp;y=37.5653353&amp;timestamp=202309071858</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>미니콘서트</t>
+          <t>카페드콘서트</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -747,34 +787,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>514</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 중구 남대문시장8길 7 삼익패션타운 1층 55호 (남창동) 미니콘서트</t>
+          <t>서울 중구 세종대로 17 와이즈타워 1층</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02-777-6548</t>
+          <t>0507-1339-9519</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1176502853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144052285</t>
+          <t>https://pcmap.place.naver.com/restaurant/37769968/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97327790550113&amp;y=37.558825416702255&amp;timestamp=202309071858</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>동덕여자대학교 공연예술센터</t>
+          <t>미니콘서트</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,22 +829,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 126 동덕여대 공연예술 연구소</t>
+          <t>서울 중구 남대문시장8길 7 삼익패션타운 1층 55호 (남창동) 미니콘서트</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02-940-4578</t>
+          <t>02-777-6548</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144057526</t>
+          <t>https://pcmap.place.naver.com/place/1176502853/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9789465&amp;y=37.5601693&amp;timestamp=202309071858</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -836,14 +886,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144064349</t>
+          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.976042200552&amp;y=37.5726952008458&amp;timestamp=202309071858</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>홍익대학교대학로아트센터 대극장</t>
+          <t>동덕여자대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -853,34 +908,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>463</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 57</t>
+          <t>서울 종로구 동숭길 126 동덕여대 공연예술 연구소</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02-742-0300</t>
+          <t>02-940-4578</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144069934</t>
+          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003282700461&amp;y=37.58364340101469&amp;timestamp=202309071858</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>더굿씨어터</t>
+          <t>홍익대학교대학로아트센터 대극장</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -900,24 +960,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 144 중원빌딩 지하2층</t>
+          <t>서울 종로구 대학로 57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02-742-7779</t>
+          <t>02-742-0300</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1958045053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144075125</t>
+          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.001482599612&amp;y=37.5767454012867&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>학전블루 소극장</t>
+          <t>더굿씨어터</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,27 +992,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 46</t>
+          <t>서울 종로구 대학로 144 중원빌딩 지하2층</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02-763-8233</t>
+          <t>02-742-7779</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11639698/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144080269</t>
+          <t>https://pcmap.place.naver.com/place/1958045053/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0020846&amp;y=37.5839822&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -964,12 +1034,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -984,7 +1054,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/427162972/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144085933</t>
+          <t>https://pcmap.place.naver.com/place/427162972/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.995365&amp;y=37.5679798&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1081,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1021,56 +1096,66 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13283331/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144091069</t>
+          <t>https://pcmap.place.naver.com/place/13283331/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9706692&amp;y=37.5662346&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>리엔터테인먼트</t>
+          <t>학전블루 소극장</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>공연기획사</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>626</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 종로구 종로17길 50 3층 301호</t>
+          <t>서울 종로구 대학로12길 46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1303-8439</t>
+          <t>02-763-8233</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1887001748/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144099848</t>
+          <t>https://pcmap.place.naver.com/place/11639698/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003731&amp;y=37.5820626&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>에이비에스갤러리</t>
+          <t>리엔터테인먼트</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>미술,공예품</t>
+          <t>공연기획사</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1080,34 +1165,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 14 3층</t>
+          <t>서울 종로구 종로17길 50 3층 301호</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0507-1314-8933</t>
+          <t>0507-1303-8439</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1718874403/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144106631</t>
+          <t>https://pcmap.place.naver.com/place/1887001748/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9884127&amp;y=37.5723805&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>미마지아트센터 물빛극장</t>
+          <t>에이비에스갤러리</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>미술,공예품</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1117,22 +1207,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 129 동원빌딩 지하 1층</t>
+          <t>서울 종로구 인사동길 14 3층</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>02-6404-5005</t>
+          <t>0507-1314-8933</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11663674/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144113461</t>
+          <t>https://pcmap.place.naver.com/place/1718874403/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.986963&amp;y=37.5721952&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1264,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1652006730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144120218</t>
+          <t>https://pcmap.place.naver.com/place/1652006730/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9868933&amp;y=37.5713718&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1306,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1462945640/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144129113</t>
+          <t>https://pcmap.place.naver.com/place/1462945640/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0039443&amp;y=37.5766721&amp;timestamp=202309071859</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -1243,19 +1348,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1329893251/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144135884</t>
+          <t>https://pcmap.place.naver.com/place/1329893251/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0020846&amp;y=37.5839822&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>미송아트홀</t>
+          <t>미마지아트센터 물빛극장</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>장소대여</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1265,22 +1375,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>692</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로29길 25 명륜빌딩 3층 미송아트홀</t>
+          <t>서울 종로구 대학로8가길 129 동원빌딩 지하 1층</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1330-5791</t>
+          <t>02-6404-5005</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/30949204/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144144726</t>
+          <t>https://pcmap.place.naver.com/place/11663674/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00348550050198&amp;y=37.5803325013344&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -1317,56 +1432,66 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1270388997/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144151515</t>
+          <t>https://pcmap.place.naver.com/place/1270388997/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9999802&amp;y=37.5837491&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>장충체육관</t>
+          <t>미송아트홀</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>체육관</t>
+          <t>장소대여</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 중구 동호로 241</t>
+          <t>서울 종로구 창경궁로29길 25 명륜빌딩 3층 미송아트홀</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>02-2128-2800</t>
+          <t>0507-1330-5791</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11622959/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144158399</t>
+          <t>https://pcmap.place.naver.com/place/30949204/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99743439954601&amp;y=37.58375790021691&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>펀에이드</t>
+          <t>장충체육관</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>문화,예술단체</t>
+          <t>체육관</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1381,29 +1506,34 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 종로구 자하문로10길 30 이룸빌딩 4층</t>
+          <t>서울 중구 동호로 241</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>02-504-7568</t>
+          <t>02-2128-2800</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/605736485/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144164217</t>
+          <t>https://pcmap.place.naver.com/place/11622959/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00679000000184&amp;y=37.55818650000293&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>일미터클래식</t>
+          <t>펀에이드</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>엔터테인먼트</t>
+          <t>문화,예술단체</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1413,34 +1543,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 종로구 종로1길 50 더케이트윈타워 B동 3층 128</t>
+          <t>서울 종로구 자하문로10길 30 이룸빌딩 4층</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>02-766-7623</t>
+          <t>02-504-7568</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13280793/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144169868</t>
+          <t>https://pcmap.place.naver.com/place/605736485/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.973221&amp;y=37.5792244&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>스튜디오 백</t>
+          <t>일미터클래식</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>엔터테인먼트</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1450,34 +1585,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 종로구 사직로8길 42 광화문시대 1201호</t>
+          <t>서울 종로구 종로1길 50 더케이트윈타워 B동 3층 128</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1362-3307</t>
+          <t>02-766-7623</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37615785/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144176580</t>
+          <t>https://pcmap.place.naver.com/place/13280793/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9790614&amp;y=37.5747887&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>브로드웨이아트홀 3관</t>
+          <t>스튜디오 백</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1487,34 +1627,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8길 25</t>
+          <t>서울 종로구 사직로8길 42 광화문시대 1201호</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>02-742-4224</t>
+          <t>0507-1362-3307</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/31676191/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144183457</t>
+          <t>https://pcmap.place.naver.com/place/37615785/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9731379&amp;y=37.573774&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>이스트파워코리아</t>
+          <t>브로드웨이아트홀 3관</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>시장</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1524,34 +1669,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 종로구 자하문로2길 4 경복빌딩</t>
+          <t>서울 종로구 대학로8길 25</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>070-5101-4073</t>
+          <t>02-742-4224</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37879959/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144190296</t>
+          <t>https://pcmap.place.naver.com/place/31676191/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00369480054901&amp;y=37.580975901203296&amp;timestamp=202309071900</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>골든에이지컴퍼니</t>
+          <t>이스트파워코리아</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>공연기획사</t>
+          <t>시장</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1561,59 +1711,69 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 종로구 혜화로 11 2층</t>
+          <t>서울 종로구 자하문로2길 4 경복빌딩</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1354-0638</t>
+          <t>070-5101-4073</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1006025379/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144197093</t>
+          <t>https://pcmap.place.naver.com/place/37879959/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9729207&amp;y=37.5764229&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>공공문화연구소</t>
+          <t>골든에이지컴퍼니</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>전시,행사대행</t>
+          <t>공연기획사</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 종로구 경희궁1길 1 투바앤빌딩 3층 사무실</t>
+          <t>서울 종로구 혜화로 11 2층</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0507-1392-0117</t>
+          <t>0507-1354-0638</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1487684204/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144205893</t>
+          <t>https://pcmap.place.naver.com/place/1006025379/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0001316&amp;y=37.5865584&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1790,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1650,93 +1810,108 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37608801/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144212157</t>
+          <t>https://pcmap.place.naver.com/place/37608801/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0148791&amp;y=37.5695614&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>애드파크</t>
+          <t>공공문화연구소</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>인쇄업</t>
+          <t>전시,행사대행</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로27길 28 한영빌딩 401호</t>
+          <t>서울 종로구 경희궁1길 1 투바앤빌딩 3층 사무실</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>02-2268-3395</t>
+          <t>0507-1392-0117</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/19942730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144217376</t>
+          <t>https://pcmap.place.naver.com/place/1487684204/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9716254&amp;y=37.5707169&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>배로메이드</t>
+          <t>애드파크</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>연예기획사</t>
+          <t>인쇄업</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로8길 14 탑빌딩 203호</t>
+          <t>서울 중구 퇴계로27길 28 한영빌딩 401호</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>02-2279-6581</t>
+          <t>02-2268-3395</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/599104763/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144226108</t>
+          <t>https://pcmap.place.naver.com/place/19942730/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9916603&amp;y=37.5623833&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>숭례문학당</t>
+          <t>배로메이드</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>평생교육</t>
+          <t>연예기획사</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1751,29 +1926,34 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울 중구 세종대로 27</t>
+          <t>서울 중구 장충단로8길 14 탑빌딩 203호</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>02-318-2032</t>
+          <t>02-2279-6581</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13021121/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144232256</t>
+          <t>https://pcmap.place.naver.com/place/599104763/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0072742&amp;y=37.561764&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>에피쿠로스</t>
+          <t>숭례문학당</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>행사</t>
+          <t>평생교육</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1783,34 +1963,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울 종로구 사직로 66-1 한라빌딩 2층 505호</t>
+          <t>서울 중구 세종대로 27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0507-1408-7327</t>
+          <t>02-318-2032</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/31818817/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144237492</t>
+          <t>https://pcmap.place.naver.com/place/13021121/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97406522905732&amp;y=37.55929346282328&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>브릭박스 스튜디오</t>
+          <t>에피쿠로스</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>공연기획사</t>
+          <t>행사</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1820,59 +2005,111 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 중구 동호로 288 상지빌딩 B1층, 3층</t>
+          <t>서울 종로구 사직로 66-1 한라빌딩 2층 505호</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0507-1476-0272</t>
+          <t>0507-1408-7327</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1567408396/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144244261</t>
+          <t>https://pcmap.place.naver.com/place/31818817/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9669621&amp;y=37.574072&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>브릭박스 스튜디오</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>공연기획사</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>서울 중구 동호로 288 상지빌딩 B1층, 3층</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0507-1476-0272</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1567408396/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0031422&amp;y=37.5602191&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>더피트</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>공연기획사</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>서울 중구 퇴계로36가길 46 2층</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>010-3346-5451</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://pcmap.place.naver.com/place/1690067565/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144253049</t>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1690067565/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9954497&amp;y=37.5582922&amp;timestamp=202309071902</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
     </row>
